--- a/tiles.xlsx
+++ b/tiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blockchain\Create_Blockchain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A9191-1F20-4258-AE1B-D403B359F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20867533-7E24-422A-AD19-4CEE18F1D06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="224">
   <si>
     <t>Keyword</t>
   </si>
@@ -670,19 +670,28 @@
     <t>p</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
     <t>tag</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>adhesive</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>peel and stick</t>
+  </si>
+  <si>
+    <t>dr fixit</t>
   </si>
 </sst>
 </file>
@@ -743,7 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1048,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,18 +1077,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2">
         <v>12290</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,9 +1098,6 @@
       <c r="B3">
         <v>12290</v>
       </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1100,9 +1106,6 @@
       <c r="B4">
         <v>7390</v>
       </c>
-      <c r="C4" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1111,9 +1114,6 @@
       <c r="B5">
         <v>7220</v>
       </c>
-      <c r="C5" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1123,7 +1123,7 @@
         <v>4080</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>3400</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>2350</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,9 +1155,6 @@
       <c r="B9">
         <v>2070</v>
       </c>
-      <c r="C9" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1166,9 +1163,6 @@
       <c r="B10">
         <v>1900</v>
       </c>
-      <c r="C10" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1188,9 +1182,6 @@
       <c r="B12">
         <v>1430</v>
       </c>
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1199,9 +1190,6 @@
       <c r="B13">
         <v>1370</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1210,9 +1198,6 @@
       <c r="B14">
         <v>1260</v>
       </c>
-      <c r="C14" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1232,9 +1217,6 @@
       <c r="B16">
         <v>1080</v>
       </c>
-      <c r="C16" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1243,9 +1225,6 @@
       <c r="B17">
         <v>1080</v>
       </c>
-      <c r="C17" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1254,9 +1233,6 @@
       <c r="B18">
         <v>1000</v>
       </c>
-      <c r="C18" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1265,9 +1241,6 @@
       <c r="B19">
         <v>980</v>
       </c>
-      <c r="C19" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1276,9 +1249,6 @@
       <c r="B20">
         <v>880</v>
       </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1287,9 +1257,6 @@
       <c r="B21">
         <v>710</v>
       </c>
-      <c r="C21" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1298,9 +1265,6 @@
       <c r="B22">
         <v>650</v>
       </c>
-      <c r="C22" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1309,9 +1273,6 @@
       <c r="B23">
         <v>540</v>
       </c>
-      <c r="C23" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1320,9 +1281,6 @@
       <c r="B24">
         <v>540</v>
       </c>
-      <c r="C24" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1331,9 +1289,6 @@
       <c r="B25">
         <v>530</v>
       </c>
-      <c r="C25" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1342,9 +1297,6 @@
       <c r="B26">
         <v>510</v>
       </c>
-      <c r="C26" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1353,9 +1305,6 @@
       <c r="B27">
         <v>480</v>
       </c>
-      <c r="C27" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1365,7 +1314,7 @@
         <v>470</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,9 +1324,6 @@
       <c r="B29">
         <v>460</v>
       </c>
-      <c r="C29" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1386,9 +1332,6 @@
       <c r="B30">
         <v>440</v>
       </c>
-      <c r="C30" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1397,9 +1340,6 @@
       <c r="B31">
         <v>390</v>
       </c>
-      <c r="C31" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1408,9 +1348,6 @@
       <c r="B32">
         <v>340</v>
       </c>
-      <c r="C32" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1419,9 +1356,6 @@
       <c r="B33">
         <v>300</v>
       </c>
-      <c r="C33" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1431,7 +1365,7 @@
         <v>280</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,9 +1375,6 @@
       <c r="B35">
         <v>280</v>
       </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1464,7 +1395,7 @@
         <v>260</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1475,7 +1406,7 @@
         <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,9 +1416,6 @@
       <c r="B39">
         <v>210</v>
       </c>
-      <c r="C39" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1496,9 +1424,6 @@
       <c r="B40">
         <v>200</v>
       </c>
-      <c r="C40" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1507,9 +1432,6 @@
       <c r="B41">
         <v>180</v>
       </c>
-      <c r="C41" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -1518,9 +1440,6 @@
       <c r="B42">
         <v>170</v>
       </c>
-      <c r="C42" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1529,9 +1448,6 @@
       <c r="B43">
         <v>150</v>
       </c>
-      <c r="C43" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1540,9 +1456,6 @@
       <c r="B44">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -1551,9 +1464,6 @@
       <c r="B45">
         <v>140</v>
       </c>
-      <c r="C45" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -1563,7 +1473,7 @@
         <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,9 +1483,6 @@
       <c r="B47">
         <v>130</v>
       </c>
-      <c r="C47" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1585,7 +1492,7 @@
         <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,9 +1502,6 @@
       <c r="B49">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -1607,7 +1511,7 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,9 +1521,6 @@
       <c r="B51">
         <v>90</v>
       </c>
-      <c r="C51" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -1629,7 +1530,7 @@
         <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1640,7 +1541,7 @@
         <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,9 +1551,6 @@
       <c r="B54">
         <v>80</v>
       </c>
-      <c r="C54" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -1662,7 +1560,7 @@
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,9 +1570,6 @@
       <c r="B56">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1683,9 +1578,6 @@
       <c r="B57">
         <v>70</v>
       </c>
-      <c r="C57" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -1695,7 +1587,7 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,9 +1597,6 @@
       <c r="B59">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -1716,9 +1605,6 @@
       <c r="B60">
         <v>70</v>
       </c>
-      <c r="C60" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1728,7 +1614,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,9 +1624,6 @@
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1749,9 +1632,6 @@
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -1760,9 +1640,6 @@
       <c r="B64">
         <v>50</v>
       </c>
-      <c r="C64" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -1772,7 +1649,7 @@
         <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,9 +1659,6 @@
       <c r="B66">
         <v>50</v>
       </c>
-      <c r="C66" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -1794,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,9 +1678,6 @@
       <c r="B68">
         <v>50</v>
       </c>
-      <c r="C68" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -1816,7 +1687,7 @@
         <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,9 +1697,6 @@
       <c r="B70">
         <v>50</v>
       </c>
-      <c r="C70" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -1837,9 +1705,6 @@
       <c r="B71">
         <v>50</v>
       </c>
-      <c r="C71" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -1849,7 +1714,7 @@
         <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,9 +1724,6 @@
       <c r="B73">
         <v>50</v>
       </c>
-      <c r="C73" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -1870,9 +1732,6 @@
       <c r="B74">
         <v>50</v>
       </c>
-      <c r="C74" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -1881,9 +1740,6 @@
       <c r="B75">
         <v>50</v>
       </c>
-      <c r="C75" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -1892,9 +1748,6 @@
       <c r="B76">
         <v>50</v>
       </c>
-      <c r="C76" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -1904,7 +1757,7 @@
         <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,9 +1767,6 @@
       <c r="B78">
         <v>50</v>
       </c>
-      <c r="C78" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -1925,9 +1775,6 @@
       <c r="B79">
         <v>40</v>
       </c>
-      <c r="C79" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -1936,9 +1783,6 @@
       <c r="B80">
         <v>40</v>
       </c>
-      <c r="C80" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -1947,9 +1791,6 @@
       <c r="B81">
         <v>40</v>
       </c>
-      <c r="C81" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -1958,9 +1799,6 @@
       <c r="B82">
         <v>30</v>
       </c>
-      <c r="C82" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -1970,7 +1808,7 @@
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,9 +1818,6 @@
       <c r="B84">
         <v>30</v>
       </c>
-      <c r="C84" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -1991,9 +1826,6 @@
       <c r="B85">
         <v>30</v>
       </c>
-      <c r="C85" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -2002,9 +1834,6 @@
       <c r="B86">
         <v>30</v>
       </c>
-      <c r="C86" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -2013,9 +1842,6 @@
       <c r="B87">
         <v>30</v>
       </c>
-      <c r="C87" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -2024,9 +1850,6 @@
       <c r="B88">
         <v>30</v>
       </c>
-      <c r="C88" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -2036,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,9 +1869,6 @@
       <c r="B90">
         <v>20</v>
       </c>
-      <c r="C90" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -2058,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2068,9 +1888,6 @@
       <c r="B92">
         <v>20</v>
       </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -2091,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,9 +1918,6 @@
       <c r="B95">
         <v>20</v>
       </c>
-      <c r="C95" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -2112,9 +1926,6 @@
       <c r="B96">
         <v>20</v>
       </c>
-      <c r="C96" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -2123,9 +1934,6 @@
       <c r="B97">
         <v>20</v>
       </c>
-      <c r="C97" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -2134,9 +1942,6 @@
       <c r="B98">
         <v>20</v>
       </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -2145,9 +1950,6 @@
       <c r="B99">
         <v>20</v>
       </c>
-      <c r="C99" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -2156,9 +1958,6 @@
       <c r="B100">
         <v>20</v>
       </c>
-      <c r="C100" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -2168,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2179,7 +1978,7 @@
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2189,9 +1988,6 @@
       <c r="B103">
         <v>20</v>
       </c>
-      <c r="C103" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -2200,9 +1996,6 @@
       <c r="B104">
         <v>20</v>
       </c>
-      <c r="C104" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -2212,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,9 +2015,6 @@
       <c r="B106">
         <v>20</v>
       </c>
-      <c r="C106" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -2233,9 +2023,6 @@
       <c r="B107">
         <v>20</v>
       </c>
-      <c r="C107" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -2244,9 +2031,6 @@
       <c r="B108">
         <v>20</v>
       </c>
-      <c r="C108" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -2255,9 +2039,6 @@
       <c r="B109">
         <v>10</v>
       </c>
-      <c r="C109" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
@@ -2266,9 +2047,6 @@
       <c r="B110">
         <v>10</v>
       </c>
-      <c r="C110" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -2277,9 +2055,6 @@
       <c r="B111">
         <v>10</v>
       </c>
-      <c r="C111" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -2288,9 +2063,6 @@
       <c r="B112">
         <v>10</v>
       </c>
-      <c r="C112" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -2300,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2311,7 +2083,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2322,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2333,7 +2105,7 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,9 +2126,6 @@
       <c r="B118">
         <v>10</v>
       </c>
-      <c r="C118" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -2365,9 +2134,6 @@
       <c r="B119">
         <v>10</v>
       </c>
-      <c r="C119" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -2376,9 +2142,6 @@
       <c r="B120">
         <v>10</v>
       </c>
-      <c r="C120" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
@@ -2388,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,9 +2161,6 @@
       <c r="B122">
         <v>10</v>
       </c>
-      <c r="C122" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -2409,9 +2169,6 @@
       <c r="B123">
         <v>10</v>
       </c>
-      <c r="C123" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -2421,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,9 +2188,6 @@
       <c r="B125">
         <v>10</v>
       </c>
-      <c r="C125" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
@@ -2442,9 +2196,6 @@
       <c r="B126">
         <v>10</v>
       </c>
-      <c r="C126" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -2453,9 +2204,6 @@
       <c r="B127">
         <v>10</v>
       </c>
-      <c r="C127" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -2464,9 +2212,6 @@
       <c r="B128">
         <v>10</v>
       </c>
-      <c r="C128" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -2475,9 +2220,6 @@
       <c r="B129">
         <v>10</v>
       </c>
-      <c r="C129" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -2486,9 +2228,6 @@
       <c r="B130">
         <v>10</v>
       </c>
-      <c r="C130" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
@@ -2497,9 +2236,6 @@
       <c r="B131">
         <v>10</v>
       </c>
-      <c r="C131" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -2509,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2519,9 +2255,6 @@
       <c r="B133">
         <v>10</v>
       </c>
-      <c r="C133" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -2530,9 +2263,6 @@
       <c r="B134">
         <v>10</v>
       </c>
-      <c r="C134" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -2541,9 +2271,6 @@
       <c r="B135">
         <v>10</v>
       </c>
-      <c r="C135" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -2552,9 +2279,6 @@
       <c r="B136">
         <v>10</v>
       </c>
-      <c r="C136" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -2564,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,9 +2298,6 @@
       <c r="B138">
         <v>10</v>
       </c>
-      <c r="C138" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -2585,9 +2306,6 @@
       <c r="B139">
         <v>10</v>
       </c>
-      <c r="C139" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -2597,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2607,9 +2325,6 @@
       <c r="B141">
         <v>10</v>
       </c>
-      <c r="C141" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -2619,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2629,9 +2344,6 @@
       <c r="B143">
         <v>10</v>
       </c>
-      <c r="C143" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -2641,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2651,9 +2363,6 @@
       <c r="B145">
         <v>10</v>
       </c>
-      <c r="C145" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -2663,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2673,9 +2382,6 @@
       <c r="B147">
         <v>10</v>
       </c>
-      <c r="C147" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -2685,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2696,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2706,9 +2412,6 @@
       <c r="B150">
         <v>10</v>
       </c>
-      <c r="C150" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
@@ -2717,9 +2420,6 @@
       <c r="B151">
         <v>10</v>
       </c>
-      <c r="C151" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -2728,9 +2428,6 @@
       <c r="B152">
         <v>10</v>
       </c>
-      <c r="C152" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
@@ -2739,9 +2436,6 @@
       <c r="B153">
         <v>10</v>
       </c>
-      <c r="C153" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
@@ -2750,9 +2444,6 @@
       <c r="B154">
         <v>10</v>
       </c>
-      <c r="C154" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
@@ -2761,9 +2452,6 @@
       <c r="B155">
         <v>10</v>
       </c>
-      <c r="C155" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
@@ -2772,9 +2460,6 @@
       <c r="B156">
         <v>10</v>
       </c>
-      <c r="C156" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -2784,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2794,9 +2479,6 @@
       <c r="B158">
         <v>10</v>
       </c>
-      <c r="C158" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
@@ -2805,9 +2487,6 @@
       <c r="B159">
         <v>10</v>
       </c>
-      <c r="C159" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
@@ -2816,9 +2495,6 @@
       <c r="B160">
         <v>0</v>
       </c>
-      <c r="C160" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
@@ -2827,9 +2503,6 @@
       <c r="B161">
         <v>0</v>
       </c>
-      <c r="C161" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
@@ -2838,9 +2511,6 @@
       <c r="B162">
         <v>0</v>
       </c>
-      <c r="C162" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -2849,9 +2519,6 @@
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -2860,9 +2527,6 @@
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -2871,9 +2535,6 @@
       <c r="B165">
         <v>0</v>
       </c>
-      <c r="C165" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -2882,9 +2543,6 @@
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
@@ -2893,9 +2551,6 @@
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -2904,9 +2559,6 @@
       <c r="B168">
         <v>0</v>
       </c>
-      <c r="C168" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
@@ -2915,9 +2567,6 @@
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
@@ -2926,9 +2575,6 @@
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
@@ -2937,9 +2583,6 @@
       <c r="B171">
         <v>0</v>
       </c>
-      <c r="C171" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
@@ -2948,9 +2591,6 @@
       <c r="B172">
         <v>0</v>
       </c>
-      <c r="C172" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -2960,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2971,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2981,9 +2621,6 @@
       <c r="B175">
         <v>0</v>
       </c>
-      <c r="C175" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -2992,9 +2629,6 @@
       <c r="B176">
         <v>0</v>
       </c>
-      <c r="C176" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
@@ -3003,9 +2637,6 @@
       <c r="B177">
         <v>0</v>
       </c>
-      <c r="C177" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
@@ -3014,9 +2645,6 @@
       <c r="B178">
         <v>0</v>
       </c>
-      <c r="C178" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
@@ -3025,9 +2653,6 @@
       <c r="B179">
         <v>0</v>
       </c>
-      <c r="C179" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
@@ -3036,9 +2661,6 @@
       <c r="B180">
         <v>0</v>
       </c>
-      <c r="C180" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -3047,9 +2669,6 @@
       <c r="B181">
         <v>0</v>
       </c>
-      <c r="C181" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -3058,9 +2677,6 @@
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
@@ -3069,9 +2685,6 @@
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
@@ -3080,9 +2693,6 @@
       <c r="B184">
         <v>0</v>
       </c>
-      <c r="C184" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
@@ -3091,9 +2701,6 @@
       <c r="B185">
         <v>0</v>
       </c>
-      <c r="C185" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
@@ -3103,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3113,9 +2720,6 @@
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
@@ -3124,9 +2728,6 @@
       <c r="B188">
         <v>0</v>
       </c>
-      <c r="C188" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
@@ -3135,9 +2736,6 @@
       <c r="B189">
         <v>0</v>
       </c>
-      <c r="C189" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -3146,9 +2744,6 @@
       <c r="B190">
         <v>0</v>
       </c>
-      <c r="C190" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
@@ -3158,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3168,9 +2763,6 @@
       <c r="B192">
         <v>0</v>
       </c>
-      <c r="C192" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -3179,9 +2771,6 @@
       <c r="B193">
         <v>0</v>
       </c>
-      <c r="C193" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -3190,9 +2779,6 @@
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
@@ -3201,9 +2787,6 @@
       <c r="B195">
         <v>0</v>
       </c>
-      <c r="C195" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
@@ -3212,9 +2795,6 @@
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -3223,9 +2803,6 @@
       <c r="B197">
         <v>0</v>
       </c>
-      <c r="C197" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
@@ -3234,9 +2811,6 @@
       <c r="B198">
         <v>0</v>
       </c>
-      <c r="C198" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -3245,9 +2819,6 @@
       <c r="B199">
         <v>0</v>
       </c>
-      <c r="C199" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
@@ -3256,9 +2827,6 @@
       <c r="B200">
         <v>0</v>
       </c>
-      <c r="C200" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -3267,9 +2835,6 @@
       <c r="B201">
         <v>0</v>
       </c>
-      <c r="C201" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
@@ -3278,9 +2843,6 @@
       <c r="B202">
         <v>0</v>
       </c>
-      <c r="C202" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -3289,9 +2851,6 @@
       <c r="B203">
         <v>0</v>
       </c>
-      <c r="C203" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
@@ -3300,9 +2859,6 @@
       <c r="B204">
         <v>0</v>
       </c>
-      <c r="C204" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -3311,9 +2867,6 @@
       <c r="B205">
         <v>0</v>
       </c>
-      <c r="C205" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
@@ -3323,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -3333,9 +2886,6 @@
       <c r="B207">
         <v>0</v>
       </c>
-      <c r="C207" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
@@ -3344,9 +2894,6 @@
       <c r="B208">
         <v>0</v>
       </c>
-      <c r="C208" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
@@ -3355,9 +2902,6 @@
       <c r="B209">
         <v>0</v>
       </c>
-      <c r="C209" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
@@ -3366,9 +2910,6 @@
       <c r="B210">
         <v>0</v>
       </c>
-      <c r="C210" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
@@ -3377,9 +2918,6 @@
       <c r="B211">
         <v>0</v>
       </c>
-      <c r="C211" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
@@ -3388,9 +2926,6 @@
       <c r="B212">
         <v>0</v>
       </c>
-      <c r="C212" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
@@ -3399,9 +2934,6 @@
       <c r="B213">
         <v>0</v>
       </c>
-      <c r="C213" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
@@ -3410,8 +2942,21 @@
       <c r="B214">
         <v>0</v>
       </c>
-      <c r="C214" t="s">
-        <v>219</v>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>223</v>
+      </c>
+      <c r="C216" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/tiles.xlsx
+++ b/tiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20867533-7E24-422A-AD19-4CEE18F1D06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8E6D7-4F7A-40FD-90B0-79CD41BCEB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
   <si>
     <t>Keyword</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>dr fixit</t>
+  </si>
+  <si>
+    <t>stick on</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1617,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2957,6 +2960,46 @@
       </c>
       <c r="C216" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="C217" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>110</v>
+      </c>
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>80</v>
+      </c>
+      <c r="C220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/tiles.xlsx
+++ b/tiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A8E6D7-4F7A-40FD-90B0-79CD41BCEB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84990BB6-50DA-4333-A4DA-831531088008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="225">
   <si>
     <t>Keyword</t>
   </si>
@@ -1060,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3002,14 @@
         <v>221</v>
       </c>
     </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>98</v>
+      </c>
+      <c r="C222" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tiles.xlsx
+++ b/tiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84990BB6-50DA-4333-A4DA-831531088008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC48D965-8B68-4EA3-9785-D15A9443425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="225">
   <si>
     <t>Keyword</t>
   </si>
@@ -1060,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3010,6 +3010,14 @@
         <v>221</v>
       </c>
     </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tiles.xlsx
+++ b/tiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC48D965-8B68-4EA3-9785-D15A9443425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A26CB20-9547-4DD2-A0A8-AE8F77960735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="804" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
   <si>
     <t>Keyword</t>
   </si>
@@ -695,6 +695,15 @@
   </si>
   <si>
     <t>stick on</t>
+  </si>
+  <si>
+    <t>kajaria</t>
+  </si>
+  <si>
+    <t>snap together</t>
+  </si>
+  <si>
+    <t>self stick</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3018,6 +3027,30 @@
         <v>219</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
